--- a/Step_1_Process_Yearbook_Data/02_Digitized_data/河南_2011_仅小麦产量.xlsx
+++ b/Step_1_Process_Yearbook_Data/02_Digitized_data/河南_2011_仅小麦产量.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangj\Desktop\统计年鉴\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangj\Desktop\Agricultural_production\Step_1_Process_Yearbook_Data\02_Digitized_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9E3613-42F0-4D2F-A849-F0E80F2A9543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E4F6EC-8C2E-4C02-ACEB-B511A6B6322A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9465" yWindow="3045" windowWidth="15855" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
-    <t>产量</t>
-  </si>
-  <si>
     <t>中牟县</t>
   </si>
   <si>
@@ -406,6 +403,9 @@
   </si>
   <si>
     <t>地区</t>
+  </si>
+  <si>
+    <t>小麦产量</t>
   </si>
 </sst>
 </file>
@@ -415,15 +415,15 @@
   <numFmts count="11">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="#."/>
-    <numFmt numFmtId="167" formatCode="m\o\n\th\ d\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="#.00"/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;—&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="mmm\ dd\,\ yy"/>
-    <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="mm/dd/yy_)"/>
-    <numFmt numFmtId="174" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;—&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="175" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="166" formatCode="m\o\n\th\ d\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="#.00"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;—&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="mmm\ dd\,\ yy"/>
+    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="mm/dd/yy_)"/>
+    <numFmt numFmtId="173" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;—&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="174" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -2266,10 +2266,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -3356,7 +3356,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="38" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3364,10 +3364,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
@@ -3492,7 +3492,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -3506,7 +3506,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="781" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="38" fillId="0" borderId="0" xfId="781" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="38" fillId="0" borderId="0" xfId="781" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3578,10 +3578,10 @@
     <xf numFmtId="1" fontId="23" fillId="4" borderId="0" xfId="783" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="781" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="783" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="781" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4761,7 +4761,7 @@
   <dimension ref="A1:O170"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -4776,16 +4776,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>0</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="20">
         <v>149477</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="3" spans="1:6" ht="21.95" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="20">
         <v>79493</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="4" spans="1:6" ht="21.95" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="20">
         <v>165884</v>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="5" spans="1:6" ht="21.95" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="20">
         <v>100457</v>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="6" spans="1:6" ht="21.95" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="20">
         <v>139997</v>
@@ -4840,7 +4840,7 @@
     </row>
     <row r="7" spans="1:6" ht="21.95" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="20">
         <v>68669</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="8" spans="1:6" ht="21.95" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="20">
         <v>386041</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="9" spans="1:6" ht="21.95" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="21">
         <v>238438</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="10" spans="1:6" ht="21.95" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="20">
         <v>363664</v>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="11" spans="1:6" ht="21.95" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="20">
         <v>373922</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="12" spans="1:6" ht="21.95" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="20">
         <v>316085</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="13" spans="1:6" ht="21.95" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="20">
         <v>115859</v>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="20">
         <v>90539</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="20">
         <v>23614</v>
@@ -4939,7 +4939,7 @@
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1">
       <c r="A16" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="20">
         <v>97951</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="20">
         <v>75902</v>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="21">
         <v>155132</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="20">
         <v>132227</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="20">
         <v>160330</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="21" spans="1:6" ht="21.95" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="20">
         <v>125109</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="20">
         <v>121950</v>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="20">
         <v>287526</v>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="20">
         <v>99429</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="25" spans="1:6" ht="21.95" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" s="20">
         <v>158559</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="26" spans="1:6" ht="21.95" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="20">
         <v>76908</v>
@@ -5060,7 +5060,7 @@
     </row>
     <row r="27" spans="1:6" ht="21.95" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="21">
         <v>220488</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="28" spans="1:6" ht="21.95" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="20">
         <v>304127</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="29" spans="1:6" ht="21.95" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="20">
         <v>216720</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="30" spans="1:6" ht="21.95" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="20">
         <v>829533</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="31" spans="1:6" ht="21.95" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="20">
         <v>318516</v>
@@ -5115,7 +5115,7 @@
     </row>
     <row r="32" spans="1:6" ht="21.95" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="20">
         <v>122537</v>
@@ -5126,7 +5126,7 @@
     </row>
     <row r="33" spans="1:15" ht="21.95" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="20">
         <v>379070</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="34" spans="1:15" ht="21.95" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="20">
         <v>142746</v>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="35" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A35" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="22">
         <v>136623</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="36" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A36" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="22">
         <v>145124</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="37" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A37" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="22">
         <v>382077</v>
@@ -5205,7 +5205,7 @@
     </row>
     <row r="38" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A38" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="22">
         <v>295287</v>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="39" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A39" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="22">
         <v>379406</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="40" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="22">
         <v>364095</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="41" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A41" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="22">
         <v>185062</v>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="42" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A42" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="22">
         <v>270228</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="43" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A43" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="22">
         <v>120055</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="44" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A44" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="22">
         <v>117720</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="45" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A45" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="22">
         <v>295886</v>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="46" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A46" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" s="22">
         <v>170960</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="47" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A47" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="22">
         <v>168110</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="48" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A48" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="22">
         <v>161250</v>
@@ -5414,7 +5414,7 @@
     </row>
     <row r="49" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A49" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" s="22">
         <v>347763</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="50" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A50" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" s="22">
         <v>252683</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="51" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A51" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" s="23">
         <v>168137</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="52" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A52" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52" s="22">
         <v>105897</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="53" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A53" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" s="22">
         <v>517800</v>
@@ -5509,7 +5509,7 @@
     </row>
     <row r="54" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A54" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" s="22">
         <v>374074</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="55" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A55" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" s="22">
         <v>304711</v>
@@ -5547,7 +5547,7 @@
     </row>
     <row r="56" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A56" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B56" s="22">
         <v>302152</v>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="57" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A57" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B57" s="22">
         <v>262456</v>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="58" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A58" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58" s="22">
         <v>274577</v>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="59" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A59" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="22">
         <v>263934</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="60" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A60" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" s="23">
         <v>308739</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="61" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A61" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61" s="22">
         <v>87718</v>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="62" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A62" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="22">
         <v>50648</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="63" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A63" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B63" s="22">
         <v>54500</v>
@@ -5699,7 +5699,7 @@
     </row>
     <row r="64" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A64" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B64" s="22">
         <v>3250</v>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="65" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A65" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B65" s="22">
         <v>105194</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="66" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A66" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B66" s="22">
         <v>65487</v>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="67" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A67" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B67" s="22">
         <v>324738</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="68" spans="1:15" s="7" customFormat="1" ht="21.95" customHeight="1">
       <c r="A68" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68" s="22">
         <v>36710</v>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="69" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69" s="24">
         <v>264657</v>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="70" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A70" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70" s="24">
         <v>139020</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="71" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A71" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" s="24">
         <v>125326</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="72" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A72" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="24">
         <v>304340</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="73" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A73" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" s="24">
         <v>778463</v>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="74" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A74" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" s="24">
         <v>372251</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="75" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A75" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B75" s="24">
         <v>84447</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="76" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A76" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B76" s="24">
         <v>753839</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="77" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A77" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77" s="24">
         <v>472000</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="78" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A78" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B78" s="25">
         <v>397493</v>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="79" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A79" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B79" s="24">
         <v>293500</v>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="80" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A80" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B80" s="24">
         <v>430815</v>
@@ -6022,7 +6022,7 @@
     </row>
     <row r="81" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A81" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B81" s="24">
         <v>535691</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="82" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A82" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82" s="24">
         <v>533705</v>
@@ -6060,7 +6060,7 @@
     </row>
     <row r="83" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A83" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83" s="24">
         <v>701849</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="84" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A84" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B84" s="24">
         <v>108266</v>
@@ -6098,7 +6098,7 @@
     </row>
     <row r="85" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A85" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B85" s="24">
         <v>78938</v>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="86" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A86" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B86" s="24">
         <v>3936</v>
@@ -6136,7 +6136,7 @@
     </row>
     <row r="87" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A87" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B87" s="24">
         <v>48855</v>
@@ -6155,7 +6155,7 @@
     </row>
     <row r="88" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A88" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B88" s="25">
         <v>167832</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="89" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A89" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B89" s="24">
         <v>146727</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="90" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A90" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B90" s="24">
         <v>251901</v>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="91" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A91" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" s="24">
         <v>445072</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="92" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A92" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B92" s="24">
         <v>421640</v>
@@ -6250,7 +6250,7 @@
     </row>
     <row r="93" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A93" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B93" s="24">
         <v>470830</v>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="94" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A94" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B94" s="24">
         <v>539000</v>
@@ -6288,7 +6288,7 @@
     </row>
     <row r="95" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A95" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B95" s="24">
         <v>457246</v>
@@ -6307,7 +6307,7 @@
     </row>
     <row r="96" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A96" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B96" s="24">
         <v>555000</v>
@@ -6326,7 +6326,7 @@
     </row>
     <row r="97" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A97" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B97" s="24">
         <v>569300</v>
@@ -6345,7 +6345,7 @@
     </row>
     <row r="98" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A98" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B98" s="24">
         <v>733860</v>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="99" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A99" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B99" s="25">
         <v>513055</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="100" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A100" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B100" s="24">
         <v>498993</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="101" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A101" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B101" s="24">
         <v>455651</v>
@@ -6421,7 +6421,7 @@
     </row>
     <row r="102" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A102" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B102" s="24">
         <v>587958</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="103" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A103" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B103" s="24">
         <v>462257</v>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="104" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A104" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B104" s="24">
         <v>579254</v>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="105" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A105" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B105" s="24">
         <v>297425</v>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="106" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A106" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B106" s="24">
         <v>319594</v>
@@ -6516,7 +6516,7 @@
     </row>
     <row r="107" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A107" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B107" s="24">
         <v>458150</v>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="108" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A108" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B108" s="24">
         <v>320846</v>
@@ -6554,7 +6554,7 @@
     </row>
     <row r="109" spans="1:15" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A109" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B109" s="24">
         <v>504100</v>
@@ -6571,56 +6571,56 @@
       <c r="N109" s="11"/>
       <c r="O109" s="12"/>
     </row>
-    <row r="110" spans="1:15" s="26" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="111" spans="1:15" s="26" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="112" spans="1:15" s="26" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="113" s="26" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="114" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="115" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="116" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="117" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="118" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="119" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="120" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="121" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="122" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="123" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="124" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="125" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="126" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="127" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="128" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="129" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="130" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="131" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="132" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="133" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="134" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="135" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="136" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="137" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="138" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="139" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="140" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="141" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="142" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="143" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="144" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="145" spans="6:6" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="146" spans="6:6" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="147" spans="6:6" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="148" spans="6:6" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="149" spans="6:6" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="150" spans="6:6" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="151" spans="6:6" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="152" spans="6:6" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="153" spans="6:6" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="154" spans="6:6" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="155" spans="6:6" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="156" spans="6:6" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="157" spans="6:6" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="158" spans="6:6" s="27" customFormat="1" ht="21.95" customHeight="1"/>
-    <row r="159" spans="6:6" s="27" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="110" spans="1:15" s="27" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="111" spans="1:15" s="27" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="112" spans="1:15" s="27" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="113" s="27" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="114" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="115" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="116" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="117" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="118" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="119" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="120" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="121" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="122" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="123" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="124" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="125" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="126" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="127" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="128" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="129" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="130" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="131" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="132" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="133" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="134" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="135" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="136" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="137" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="138" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="139" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="140" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="141" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="142" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="143" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="144" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="145" spans="6:6" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="146" spans="6:6" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="147" spans="6:6" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="148" spans="6:6" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="149" spans="6:6" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="150" spans="6:6" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="151" spans="6:6" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="152" spans="6:6" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="153" spans="6:6" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="154" spans="6:6" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="155" spans="6:6" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="156" spans="6:6" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="157" spans="6:6" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="158" spans="6:6" s="26" customFormat="1" ht="21.95" customHeight="1"/>
+    <row r="159" spans="6:6" s="26" customFormat="1" ht="21.95" customHeight="1"/>
     <row r="160" spans="6:6" ht="21.95" customHeight="1">
       <c r="F160" s="4"/>
     </row>
@@ -6656,6 +6656,48 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A110:XFD110"/>
+    <mergeCell ref="A111:XFD111"/>
+    <mergeCell ref="A116:XFD116"/>
+    <mergeCell ref="A117:XFD117"/>
+    <mergeCell ref="A118:XFD118"/>
+    <mergeCell ref="A119:XFD119"/>
+    <mergeCell ref="A112:XFD112"/>
+    <mergeCell ref="A113:XFD113"/>
+    <mergeCell ref="A114:XFD114"/>
+    <mergeCell ref="A115:XFD115"/>
+    <mergeCell ref="A124:XFD124"/>
+    <mergeCell ref="A125:XFD125"/>
+    <mergeCell ref="A126:XFD126"/>
+    <mergeCell ref="A127:XFD127"/>
+    <mergeCell ref="A120:XFD120"/>
+    <mergeCell ref="A121:XFD121"/>
+    <mergeCell ref="A122:XFD122"/>
+    <mergeCell ref="A123:XFD123"/>
+    <mergeCell ref="A132:XFD132"/>
+    <mergeCell ref="A133:XFD133"/>
+    <mergeCell ref="A134:XFD134"/>
+    <mergeCell ref="A135:XFD135"/>
+    <mergeCell ref="A128:XFD128"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="A130:XFD130"/>
+    <mergeCell ref="A131:XFD131"/>
+    <mergeCell ref="A140:XFD140"/>
+    <mergeCell ref="A141:XFD141"/>
+    <mergeCell ref="A142:XFD142"/>
+    <mergeCell ref="A143:XFD143"/>
+    <mergeCell ref="A136:XFD136"/>
+    <mergeCell ref="A137:XFD137"/>
+    <mergeCell ref="A138:XFD138"/>
+    <mergeCell ref="A139:XFD139"/>
+    <mergeCell ref="A148:XFD148"/>
+    <mergeCell ref="A149:XFD149"/>
+    <mergeCell ref="A150:XFD150"/>
+    <mergeCell ref="A151:XFD151"/>
+    <mergeCell ref="A144:XFD144"/>
+    <mergeCell ref="A145:XFD145"/>
+    <mergeCell ref="A146:XFD146"/>
+    <mergeCell ref="A147:XFD147"/>
     <mergeCell ref="A152:XFD152"/>
     <mergeCell ref="A153:XFD153"/>
     <mergeCell ref="A154:XFD154"/>
@@ -6664,48 +6706,6 @@
     <mergeCell ref="A156:XFD156"/>
     <mergeCell ref="A157:XFD157"/>
     <mergeCell ref="A158:XFD158"/>
-    <mergeCell ref="A148:XFD148"/>
-    <mergeCell ref="A149:XFD149"/>
-    <mergeCell ref="A150:XFD150"/>
-    <mergeCell ref="A151:XFD151"/>
-    <mergeCell ref="A144:XFD144"/>
-    <mergeCell ref="A145:XFD145"/>
-    <mergeCell ref="A146:XFD146"/>
-    <mergeCell ref="A147:XFD147"/>
-    <mergeCell ref="A140:XFD140"/>
-    <mergeCell ref="A141:XFD141"/>
-    <mergeCell ref="A142:XFD142"/>
-    <mergeCell ref="A143:XFD143"/>
-    <mergeCell ref="A136:XFD136"/>
-    <mergeCell ref="A137:XFD137"/>
-    <mergeCell ref="A138:XFD138"/>
-    <mergeCell ref="A139:XFD139"/>
-    <mergeCell ref="A132:XFD132"/>
-    <mergeCell ref="A133:XFD133"/>
-    <mergeCell ref="A134:XFD134"/>
-    <mergeCell ref="A135:XFD135"/>
-    <mergeCell ref="A128:XFD128"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="A130:XFD130"/>
-    <mergeCell ref="A131:XFD131"/>
-    <mergeCell ref="A124:XFD124"/>
-    <mergeCell ref="A125:XFD125"/>
-    <mergeCell ref="A126:XFD126"/>
-    <mergeCell ref="A127:XFD127"/>
-    <mergeCell ref="A120:XFD120"/>
-    <mergeCell ref="A121:XFD121"/>
-    <mergeCell ref="A122:XFD122"/>
-    <mergeCell ref="A123:XFD123"/>
-    <mergeCell ref="A116:XFD116"/>
-    <mergeCell ref="A117:XFD117"/>
-    <mergeCell ref="A118:XFD118"/>
-    <mergeCell ref="A119:XFD119"/>
-    <mergeCell ref="A112:XFD112"/>
-    <mergeCell ref="A113:XFD113"/>
-    <mergeCell ref="A114:XFD114"/>
-    <mergeCell ref="A115:XFD115"/>
-    <mergeCell ref="A110:XFD110"/>
-    <mergeCell ref="A111:XFD111"/>
   </mergeCells>
   <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.66929135735579359" right="0.66929131042300249" top="0.82677161599707416" bottom="0.82677170986265647" header="0" footer="0"/>
